--- a/biology/Botanique/Yvesia_madagascariensis/Yvesia_madagascariensis.xlsx
+++ b/biology/Botanique/Yvesia_madagascariensis/Yvesia_madagascariensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yvesia madagascariensis est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Poaceae[3], endémique de Madagascar.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yvesia madagascariensis est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Poaceae, endémique de Madagascar.
 C'est l'unique espèce du genre Yvesia (genre monotypique).
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">l'espèce Yvesia madagascariensis a été décrite par la botaniste française, Aimée Antoinette Camus, et publiée dans le Bulletin de la société botanique de France (73: 690, f. 1.) en 1927[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">l'espèce Yvesia madagascariensis a été décrite par la botaniste française, Aimée Antoinette Camus, et publiée dans le Bulletin de la société botanique de France (73: 690, f. 1.) en 1927,.
 Étymologie
-Le nom générique « Yvesia » est un hommage au botaniste et agrostologue français, Alfred Marie Augustine Saint-Yves[3].
+Le nom générique « Yvesia » est un hommage au botaniste et agrostologue français, Alfred Marie Augustine Saint-Yves.
 L'épithète spécifique « madagascariensis » est un terme de latin botanique qui fait référence à Madagascar, région d'origine de la plante.
 </t>
         </is>
